--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="439">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2-beta</t>
+    <t>0.1.3-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T08:15:50-06:00</t>
+    <t>2023-01-11T06:10:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -122,7 +122,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -282,7 +282,7 @@
     <t>Detailed information about conditions, problems or diagnoses</t>
   </si>
   <si>
-    <t>The US Core Condition Profile is based upon the core FHIR Condition Resource and created to meet the 2015 Edition Common Clinical Data Set 'Problems' and 'Health Concerns' requirements.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>Event</t>
@@ -627,10 +627,36 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Condition.extension:assertedDate</t>
+  </si>
+  <si>
+    <t>assertedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {condition-assertedDate}
+</t>
+  </si>
+  <si>
+    <t>Date the condition was first asserted</t>
+  </si>
+  <si>
+    <t>The date on which the existence of the Condition was first asserted or acknowledged.</t>
+  </si>
+  <si>
+    <t>The assertedDate is in the context of the recording practitioner and might not be the same as the recordedDate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -764,7 +790,7 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t>problem-list-item | encounter-diagnosis | health-concern</t>
+    <t>category codes</t>
   </si>
   <si>
     <t>A category assigned to the condition.</t>
@@ -773,10 +799,10 @@
     <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-condition-category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-1
+    <t>http://hl7.org/fhir/ValueSet/condition-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -793,6 +819,35 @@
   </si>
   <si>
     <t>`problem-list-item`</t>
+  </si>
+  <si>
+    <t>Condition.category:us-core</t>
+  </si>
+  <si>
+    <t>us-core</t>
+  </si>
+  <si>
+    <t>problem-list-item | health-concern</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern</t>
+  </si>
+  <si>
+    <t>Condition.category:sdoh</t>
+  </si>
+  <si>
+    <t>sdoh</t>
+  </si>
+  <si>
+    <t>problem-list-item | encounter-diagnosis</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/core/CodeSystem/us-core-tags"/&gt;
+    &lt;code value="sdoh"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Condition.severity</t>
@@ -904,9 +959,6 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>ICD-9 # ProblemTO.icd</t>
-  </si>
-  <si>
     <t>Condition.code.text</t>
   </si>
   <si>
@@ -929,9 +981,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ProblemTO.type.name</t>
   </si>
   <si>
     <t>Condition.bodySite</t>
@@ -1682,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ52"/>
+  <dimension ref="A1:AQ55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1716,7 +1765,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.84765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1902,7 +1951,9 @@
       <c r="M2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>80</v>
@@ -3714,7 +3765,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3736,14 +3787,12 @@
         <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3780,19 +3829,17 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3816,7 +3863,7 @@
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3830,46 +3877,46 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="D18" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3917,7 +3964,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3926,7 +3973,7 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>121</v>
@@ -3941,7 +3988,7 @@
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -3955,18 +4002,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>82</v>
@@ -3975,25 +4022,25 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4042,7 +4089,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4054,10 +4101,10 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4066,24 +4113,24 @@
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4091,33 +4138,35 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4141,11 +4190,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4163,48 +4214,48 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4227,16 +4278,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4262,11 +4313,11 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4284,7 +4335,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4293,39 +4344,39 @@
         <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4333,31 +4384,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4383,11 +4434,11 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4405,48 +4456,48 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AP22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4454,13 +4505,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
@@ -4469,16 +4520,16 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4504,37 +4555,35 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4546,41 +4595,43 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>93</v>
@@ -4589,21 +4640,21 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4627,13 +4678,11 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4651,13 +4700,13 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -4666,22 +4715,22 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>80</v>
@@ -4689,12 +4738,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4706,7 +4757,7 @@
         <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
@@ -4715,15 +4766,17 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4733,7 +4786,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>80</v>
@@ -4748,13 +4801,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4772,34 +4825,34 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -4810,21 +4863,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4836,16 +4889,16 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4871,61 +4924,61 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>80</v>
@@ -4933,24 +4986,24 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
@@ -4959,19 +5012,17 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4996,13 +5047,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5020,13 +5071,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -5035,33 +5086,33 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5069,7 +5120,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
@@ -5081,23 +5132,19 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5145,7 +5192,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5157,7 +5204,7 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5166,10 +5213,10 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5178,19 +5225,19 @@
         <v>80</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5206,19 +5253,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5244,31 +5291,31 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5280,25 +5327,25 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>297</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>80</v>
@@ -5306,24 +5353,24 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5332,17 +5379,19 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5391,13 +5440,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5406,33 +5455,33 @@
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5455,18 +5504,20 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5514,7 +5565,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5529,19 +5580,19 @@
         <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5552,10 +5603,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5566,7 +5617,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5578,16 +5629,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5613,35 +5664,37 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5650,22 +5703,22 @@
         <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>80</v>
@@ -5673,26 +5726,24 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5701,18 +5752,18 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5760,10 +5811,10 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>92</v>
@@ -5775,33 +5826,33 @@
         <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5821,19 +5872,19 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5871,17 +5922,19 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5890,25 +5943,25 @@
         <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -5919,14 +5972,12 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5938,25 +5989,25 @@
         <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5994,16 +6045,14 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>333</v>
@@ -6015,31 +6064,31 @@
         <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -6047,9 +6096,11 @@
         <v>343</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6061,7 +6112,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6070,15 +6121,17 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6127,7 +6180,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6142,33 +6195,33 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6182,24 +6235,26 @@
         <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6236,19 +6291,17 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6257,7 +6310,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6272,10 +6325,10 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6286,12 +6339,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6303,24 +6358,26 @@
         <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6369,7 +6426,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6378,7 +6435,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6390,27 +6447,27 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6421,25 +6478,25 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6490,48 +6547,48 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ39" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6551,16 +6608,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>367</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6611,7 +6668,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>109</v>
+        <v>364</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6623,7 +6680,7 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6635,10 +6692,10 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -6656,14 +6713,14 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6672,20 +6729,18 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>114</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6734,19 +6789,19 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -6755,31 +6810,31 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>110</v>
+        <v>374</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6792,26 +6847,22 @@
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6859,7 +6910,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6871,7 +6922,7 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>121</v>
+        <v>381</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6883,7 +6934,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>192</v>
+        <v>382</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -6897,10 +6948,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6923,13 +6974,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>377</v>
+        <v>107</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>378</v>
+        <v>108</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6956,13 +7007,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6980,7 +7031,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>376</v>
+        <v>109</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6989,22 +7040,22 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7018,14 +7069,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7044,15 +7095,17 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>384</v>
+        <v>113</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>114</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7101,7 +7154,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>383</v>
+        <v>120</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7110,10 +7163,10 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7125,7 +7178,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>387</v>
+        <v>110</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7139,42 +7192,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7198,13 +7255,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7222,19 +7279,19 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7246,7 +7303,7 @@
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>393</v>
+        <v>192</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7260,10 +7317,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7274,7 +7331,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7286,17 +7343,15 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>220</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7321,13 +7376,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7345,31 +7400,31 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>398</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>399</v>
+        <v>283</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7383,10 +7438,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7397,7 +7452,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7409,13 +7464,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>107</v>
+        <v>399</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>108</v>
+        <v>400</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7466,19 +7521,19 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>109</v>
+        <v>397</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7490,7 +7545,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>110</v>
+        <v>401</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7504,21 +7559,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7530,17 +7585,15 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>114</v>
+        <v>403</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7565,13 +7618,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7589,19 +7642,19 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>120</v>
+        <v>402</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7613,7 +7666,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>110</v>
+        <v>407</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7627,14 +7680,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7647,26 +7700,24 @@
         <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>113</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7714,7 +7765,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7726,7 +7777,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>121</v>
+        <v>412</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7738,7 +7789,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>192</v>
+        <v>413</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7752,10 +7803,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7766,7 +7817,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7775,16 +7826,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
+        <v>107</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7811,13 +7862,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7835,34 +7886,34 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -7873,14 +7924,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7896,18 +7947,20 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>413</v>
+        <v>113</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>414</v>
+        <v>114</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7956,7 +8009,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>412</v>
+        <v>120</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7965,10 +8018,10 @@
         <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -7980,28 +8033,28 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>110</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8014,22 +8067,26 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>418</v>
+        <v>113</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8077,7 +8134,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8089,32 +8146,395 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>424</v>
+      <c r="AJ54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ52">
+  <autoFilter ref="A1:AQ55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8124,7 +8544,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T06:10:13-06:00</t>
+    <t>2023-02-02T16:50:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,7 +86,7 @@
   <si>
     <t>A profile on the Condition resource for MHV PHR exposing Problems using FHIR API.
 - The mock example maps best to VIA_v4.0.7_uat.wsdl. 
-- based on US-Core for Condition Resource
+- Should be based on US-Core for Condition Resource
 - Presume we will not expose those that are ProblemTO.removed = true
 TODO:
 - not clear if the ProblemTO.location is describing, is it evidence?

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -694,6 +694,10 @@
     <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -703,16 +707,210 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>ProblemTO.id</t>
-  </si>
-  <si>
-    <t>Condition.clinicalStatus</t>
+    <t>{StationNbr} | `;` | {ProblemTO.id}</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>Condition.identifier.id</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>Condition.identifier.extension</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>Condition.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>Condition.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>Condition.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>Condition.identifier.value</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>Condition.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid.assigner</t>
+  </si>
+  <si>
+    <t>Condition.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus</t>
+  </si>
+  <si>
     <t>active | recurrence | relapse | inactive | remission | resolved</t>
   </si>
   <si>
@@ -720,9 +918,6 @@
   </si>
   <si>
     <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
@@ -1731,7 +1926,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ55"/>
+  <dimension ref="A1:AQ64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1759,7 +1954,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
@@ -4202,16 +4397,14 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>209</v>
@@ -4229,7 +4422,7 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4238,58 +4431,62 @@
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4313,11 +4510,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4335,48 +4534,48 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4390,26 +4589,24 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4434,11 +4631,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4456,7 +4655,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4465,53 +4664,53 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
@@ -4520,16 +4719,16 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4555,21 +4754,23 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4577,7 +4778,7 @@
         <v>119</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4589,40 +4790,38 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>252</v>
+        <v>110</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4631,30 +4830,32 @@
         <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I24" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4663,7 +4864,7 @@
         <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>80</v>
@@ -4678,11 +4879,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4700,13 +4903,13 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -4718,16 +4921,16 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4738,14 +4941,12 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4757,27 +4958,29 @@
         <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4786,7 +4989,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>80</v>
@@ -4804,11 +5007,11 @@
         <v>151</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4825,13 +5028,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4843,16 +5046,16 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -4863,10 +5066,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4886,21 +5089,23 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4909,10 +5114,10 @@
         <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>80</v>
@@ -4924,13 +5129,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4948,7 +5153,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4966,19 +5171,19 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>80</v>
@@ -4986,24 +5191,24 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
@@ -5012,18 +5217,18 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5035,7 +5240,7 @@
         <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>80</v>
@@ -5047,13 +5252,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5071,7 +5276,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5086,22 +5291,22 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>80</v>
@@ -5109,10 +5314,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5132,16 +5337,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5192,7 +5397,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5204,7 +5409,7 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5213,10 +5418,10 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5230,21 +5435,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5253,19 +5458,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5303,31 +5508,31 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5336,10 +5541,10 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5353,10 +5558,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5367,32 +5572,30 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5416,13 +5619,11 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5440,48 +5641,48 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AO30" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5495,29 +5696,27 @@
         <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O31" t="s" s="2">
         <v>300</v>
       </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5541,13 +5740,11 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5565,7 +5762,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5574,39 +5771,39 @@
         <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5614,31 +5811,31 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5664,31 +5861,29 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AC32" s="2"/>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5706,41 +5901,43 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>92</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>93</v>
@@ -5749,21 +5946,21 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5787,13 +5984,11 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5811,13 +6006,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5826,35 +6021,37 @@
         <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5866,25 +6063,25 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5895,7 +6092,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -5910,13 +6107,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5934,13 +6131,13 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
@@ -5949,19 +6146,19 @@
         <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -5972,10 +6169,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5989,25 +6186,25 @@
         <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6033,29 +6230,31 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6070,22 +6269,22 @@
         <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>80</v>
@@ -6093,20 +6292,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
@@ -6121,18 +6318,18 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>345</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6156,13 +6353,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6180,7 +6377,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6195,33 +6392,33 @@
         <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6235,7 +6432,7 @@
         <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
@@ -6244,17 +6441,15 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6291,17 +6486,19 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>347</v>
+        <v>109</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6310,10 +6507,10 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6325,10 +6522,10 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>352</v>
+        <v>110</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6339,26 +6536,24 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
@@ -6367,16 +6562,16 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>113</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>114</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>115</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>350</v>
+        <v>116</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6414,31 +6609,31 @@
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6450,24 +6645,24 @@
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>352</v>
+        <v>110</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6478,10 +6673,10 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
@@ -6490,16 +6685,20 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>345</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6553,7 +6752,7 @@
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6568,27 +6767,27 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6611,16 +6810,20 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6668,7 +6871,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6689,13 +6892,13 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -6706,10 +6909,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6720,7 +6923,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6732,15 +6935,17 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>365</v>
+        <v>240</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6765,13 +6970,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6789,13 +6994,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -6807,22 +7012,22 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -6834,35 +7039,37 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6913,45 +7120,45 @@
         <v>377</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>381</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6971,18 +7178,20 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7031,7 +7240,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>109</v>
+        <v>388</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7043,22 +7252,22 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>110</v>
+        <v>395</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7069,42 +7278,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>113</v>
+        <v>398</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>114</v>
+        <v>399</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>116</v>
+        <v>401</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7142,46 +7351,44 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>120</v>
+        <v>397</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>110</v>
+        <v>405</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7192,46 +7399,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="D45" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>113</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7279,48 +7486,48 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>192</v>
+        <v>405</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7334,7 +7541,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7343,15 +7550,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>220</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7376,31 +7585,29 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7409,7 +7616,7 @@
         <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>104</v>
@@ -7418,16 +7625,16 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>283</v>
+        <v>416</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7438,12 +7645,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7452,10 +7661,10 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>80</v>
@@ -7464,15 +7673,17 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7521,16 +7732,16 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>104</v>
@@ -7545,24 +7756,24 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7576,22 +7787,22 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>220</v>
+        <v>409</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7618,13 +7829,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7642,7 +7853,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7663,27 +7874,27 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7694,7 +7905,7 @@
         <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7703,20 +7914,18 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7765,19 +7974,19 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>412</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7789,10 +7998,10 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -7803,10 +8012,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7826,16 +8035,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>107</v>
+        <v>435</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>108</v>
+        <v>436</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7886,7 +8095,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>109</v>
+        <v>434</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7898,7 +8107,7 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7907,31 +8116,31 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>110</v>
+        <v>438</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>80</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7950,17 +8159,15 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>113</v>
+        <v>442</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>114</v>
+        <v>443</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8009,7 +8216,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>120</v>
+        <v>441</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8021,7 +8228,7 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>121</v>
+        <v>445</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8033,7 +8240,7 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8047,46 +8254,42 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>107</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8134,19 +8337,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8158,7 +8361,7 @@
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8172,14 +8375,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8195,18 +8398,20 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>418</v>
+        <v>114</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8231,13 +8436,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8255,7 +8460,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>417</v>
+        <v>120</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8264,25 +8469,25 @@
         <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>424</v>
+        <v>110</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8293,14 +8498,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8313,22 +8518,26 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>427</v>
+        <v>113</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8376,7 +8585,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8385,10 +8594,10 @@
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8400,24 +8609,24 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>401</v>
+        <v>192</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8428,7 +8637,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8440,13 +8649,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>432</v>
+        <v>240</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8473,13 +8682,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8497,31 +8706,31 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>436</v>
+        <v>293</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8530,11 +8739,1108 @@
         <v>80</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ55">
+  <autoFilter ref="A1:AQ64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8544,7 +9850,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -707,7 +707,7 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>{StationNbr} | `;` | {ProblemTO.id}</t>
+    <t>{StationNbr} and {ProblemTO.id}</t>
   </si>
   <si>
     <t>Condition.identifier:TOid</t>
@@ -804,7 +804,7 @@
     <t>Condition.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -816,9 +816,6 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>urn:oid:2.16.840.1.113883.4.349</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>Condition.identifier.value</t>
+  </si>
+  <si>
+    <t>`ProblemTO` | `.` | {ProblemTO.id}</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -4461,7 +4461,7 @@
         <v>92</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -5114,46 +5114,46 @@
         <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="T26" t="s" s="2">
+      <c r="U26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5174,10 +5174,10 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5220,7 +5220,7 @@
         <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>262</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="505">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1124,6 +1124,9 @@
     <t>246090004</t>
   </si>
   <si>
+    <t>ProblemTO.type.name</t>
+  </si>
+  <si>
     <t>Condition.code.id</t>
   </si>
   <si>
@@ -1152,6 +1155,9 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ICD-9 # ProblemTO.icd</t>
   </si>
   <si>
     <t>Condition.code.text</t>
@@ -6410,15 +6416,15 @@
         <v>349</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6536,10 +6542,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6659,10 +6665,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6670,13 +6676,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
@@ -6688,16 +6694,16 @@
         <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6746,7 +6752,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6767,10 +6773,10 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6779,15 +6785,15 @@
         <v>80</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6795,13 +6801,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6813,16 +6819,16 @@
         <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6871,7 +6877,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6892,10 +6898,10 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6909,10 +6915,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6938,13 +6944,13 @@
         <v>240</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6973,10 +6979,10 @@
         <v>159</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6994,7 +7000,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7012,19 +7018,19 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>80</v>
@@ -7032,14 +7038,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7058,17 +7064,17 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7117,7 +7123,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>92</v>
@@ -7132,33 +7138,33 @@
         <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7181,16 +7187,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7240,7 +7246,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7255,19 +7261,19 @@
         <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7278,10 +7284,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7304,16 +7310,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7351,7 +7357,7 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
@@ -7361,7 +7367,7 @@
         <v>119</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7376,19 +7382,19 @@
         <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7399,13 +7405,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>80</v>
@@ -7427,16 +7433,16 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7486,7 +7492,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7501,33 +7507,33 @@
         <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7550,16 +7556,16 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7597,7 +7603,7 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
@@ -7607,7 +7613,7 @@
         <v>119</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7616,7 +7622,7 @@
         <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>104</v>
@@ -7631,10 +7637,10 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7645,13 +7651,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
@@ -7673,16 +7679,16 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7732,7 +7738,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7741,7 +7747,7 @@
         <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>104</v>
@@ -7756,24 +7762,24 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7796,13 +7802,13 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7853,7 +7859,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7874,27 +7880,27 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7917,13 +7923,13 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7974,7 +7980,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7998,10 +8004,10 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8012,10 +8018,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8038,13 +8044,13 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8095,7 +8101,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8116,27 +8122,27 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8159,13 +8165,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8216,7 +8222,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8228,7 +8234,7 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8240,7 +8246,7 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8254,10 +8260,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8375,10 +8381,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8498,14 +8504,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8527,10 +8533,10 @@
         <v>113</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>116</v>
@@ -8585,7 +8591,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8623,10 +8629,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8652,10 +8658,10 @@
         <v>240</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8685,10 +8691,10 @@
         <v>159</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8706,7 +8712,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8715,7 +8721,7 @@
         <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>104</v>
@@ -8724,7 +8730,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>293</v>
@@ -8744,10 +8750,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8770,13 +8776,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8827,7 +8833,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8836,7 +8842,7 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>104</v>
@@ -8851,7 +8857,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8865,10 +8871,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8894,10 +8900,10 @@
         <v>240</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8927,10 +8933,10 @@
         <v>159</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8948,7 +8954,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8972,7 +8978,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8986,10 +8992,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9012,16 +9018,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9071,7 +9077,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9083,7 +9089,7 @@
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -9095,7 +9101,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9109,10 +9115,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9230,10 +9236,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9353,14 +9359,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9382,10 +9388,10 @@
         <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>116</v>
@@ -9440,7 +9446,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9478,10 +9484,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9507,10 +9513,10 @@
         <v>240</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9540,10 +9546,10 @@
         <v>159</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9561,7 +9567,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9570,13 +9576,13 @@
         <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>314</v>
@@ -9585,10 +9591,10 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9599,10 +9605,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9625,13 +9631,13 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9682,7 +9688,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9691,7 +9697,7 @@
         <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>104</v>
@@ -9706,24 +9712,24 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9746,13 +9752,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9803,7 +9809,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9818,16 +9824,16 @@
         <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9836,7 +9842,7 @@
         <v>80</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,15 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Condition resource for MHV PHR exposing Problems using FHIR API.
-- The mock example maps best to VIA_v4.0.7_uat.wsdl. 
-- Should be based on US-Core for Condition Resource
-- Presume we will not expose those that are ProblemTO.removed = true
-TODO:
-- not clear if the ProblemTO.location is describing, is it evidence?
-- what are the other values for ProblemTO.status
-- not clear what ProblemTO.accuity.tag is
-- not clear what ProblemTo.facility is</t>
+    <t>A profile on the Condition resource for MHV PHR exposing Problems using FHIR API.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -791,6 +783,14 @@
     <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/condition-clinical"/&gt;
+    &lt;code value="active"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
   </si>
   <si>
@@ -814,7 +814,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>ProblemTO.status | !ProblemTO.removed ? `#active` : todo</t>
+    <t>ProblemTO.status==ACTIVE &amp; !ProblemTO.removed ? `#active` : todo</t>
   </si>
   <si>
     <t>Condition.verificationStatus</t>
@@ -830,7 +830,7 @@
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
+    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/ConditionVerificationVS</t>
   </si>
   <si>
     <t>con-3
@@ -863,6 +863,14 @@
   </si>
   <si>
     <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/condition-category"/&gt;
+    &lt;code value="problem-list-item"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-category</t>
@@ -995,64 +1003,64 @@
     <t>246090004</t>
   </si>
   <si>
+    <t>Condition.code.id</t>
+  </si>
+  <si>
+    <t>Condition.code.extension</t>
+  </si>
+  <si>
+    <t>Condition.code.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ICD-9 # ProblemTO.icd</t>
+  </si>
+  <si>
+    <t>Condition.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>ProblemTO.type.name</t>
-  </si>
-  <si>
-    <t>Condition.code.id</t>
-  </si>
-  <si>
-    <t>Condition.code.extension</t>
-  </si>
-  <si>
-    <t>Condition.code.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ICD-9 # ProblemTO.icd</t>
-  </si>
-  <si>
-    <t>Condition.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.bodySite</t>
@@ -1148,8 +1156,8 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
-    <t>dateTime
-AgePeriodRangestring</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
@@ -1165,6 +1173,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1181,10 +1192,6 @@
   </si>
   <si>
     <t>onsetDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>ProblemTO.onsetDate</t>
@@ -1264,6 +1271,10 @@
     <t>Condition.asserter</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Practitioner)
+</t>
+  </si>
+  <si>
     <t>Person who asserts this condition</t>
   </si>
   <si>
@@ -1391,10 +1402,6 @@
   </si>
   <si>
     <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.</t>
-  </si>
-  <si>
-    <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
@@ -1835,12 +1842,12 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.14453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.7421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1852,7 +1859,7 @@
     <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="11.07421875" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="54.01171875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="63.0859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5349,7 +5356,7 @@
         <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>37</v>
@@ -5368,7 +5375,7 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5395,39 +5402,39 @@
         <v>49</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5453,13 +5460,13 @@
         <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5489,7 +5496,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5507,7 +5514,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5516,39 +5523,39 @@
         <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5574,13 +5581,13 @@
         <v>197</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5591,7 +5598,7 @@
         <v>37</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>37</v>
@@ -5609,16 +5616,16 @@
         <v>108</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -5628,7 +5635,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5646,33 +5653,33 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>37</v>
@@ -5697,13 +5704,13 @@
         <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5733,7 +5740,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5751,7 +5758,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -5769,16 +5776,16 @@
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>37</v>
@@ -5789,13 +5796,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>37</v>
@@ -5820,13 +5827,13 @@
         <v>197</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5837,7 +5844,7 @@
         <v>37</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>37</v>
@@ -5855,10 +5862,10 @@
         <v>108</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
@@ -5876,7 +5883,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5894,16 +5901,16 @@
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>37</v>
@@ -5914,10 +5921,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5928,7 +5935,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5943,13 +5950,13 @@
         <v>197</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5978,28 +5985,28 @@
         <v>130</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -6017,19 +6024,19 @@
         <v>37</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>37</v>
@@ -6037,14 +6044,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6066,14 +6073,14 @@
         <v>197</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>37</v>
@@ -6101,10 +6108,10 @@
         <v>108</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>37</v>
@@ -6122,7 +6129,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -6137,33 +6144,33 @@
         <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>307</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6281,10 +6288,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6404,10 +6411,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6433,16 +6440,16 @@
         <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6491,7 +6498,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6512,10 +6519,10 @@
         <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
@@ -6524,15 +6531,15 @@
         <v>37</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6558,16 +6565,16 @@
         <v>63</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>37</v>
@@ -6616,7 +6623,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6637,10 +6644,10 @@
         <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6649,15 +6656,15 @@
         <v>37</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>37</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6668,7 +6675,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -6683,13 +6690,13 @@
         <v>197</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6718,10 +6725,10 @@
         <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6739,7 +6746,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6757,19 +6764,19 @@
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>37</v>
@@ -6777,14 +6784,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6803,17 +6810,17 @@
         <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -6862,7 +6869,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>49</v>
@@ -6877,33 +6884,33 @@
         <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6914,7 +6921,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -6926,16 +6933,16 @@
         <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6985,7 +6992,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7000,19 +7007,19 @@
         <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>37</v>
@@ -7023,10 +7030,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7049,16 +7056,16 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7096,17 +7103,17 @@
         <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
@@ -7121,19 +7128,19 @@
         <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>37</v>
@@ -7144,13 +7151,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>37</v>
@@ -7172,16 +7179,16 @@
         <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7231,7 +7238,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7246,33 +7253,33 @@
         <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7295,16 +7302,16 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7342,17 +7349,17 @@
         <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7361,7 +7368,7 @@
         <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>61</v>
@@ -7376,10 +7383,10 @@
         <v>37</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>37</v>
@@ -7390,13 +7397,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>37</v>
@@ -7418,16 +7425,16 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7477,7 +7484,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7486,7 +7493,7 @@
         <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>61</v>
@@ -7501,24 +7508,24 @@
         <v>37</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7541,13 +7548,13 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7598,7 +7605,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7619,27 +7626,27 @@
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7650,7 +7657,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7662,13 +7669,13 @@
         <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7719,7 +7726,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7743,10 +7750,10 @@
         <v>37</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>37</v>
@@ -7757,10 +7764,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7774,7 +7781,7 @@
         <v>49</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
@@ -7783,13 +7790,13 @@
         <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7840,7 +7847,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -7861,27 +7868,27 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7892,7 +7899,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7904,13 +7911,13 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7961,7 +7968,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7973,7 +7980,7 @@
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
@@ -7985,7 +7992,7 @@
         <v>37</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7999,10 +8006,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8120,10 +8127,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8243,14 +8250,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8272,10 +8279,10 @@
         <v>70</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>73</v>
@@ -8330,7 +8337,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8368,10 +8375,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8397,10 +8404,10 @@
         <v>197</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8430,28 +8437,28 @@
         <v>116</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8460,7 +8467,7 @@
         <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>61</v>
@@ -8469,13 +8476,13 @@
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -8489,10 +8496,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8515,13 +8522,13 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8572,7 +8579,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8581,7 +8588,7 @@
         <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>61</v>
@@ -8596,7 +8603,7 @@
         <v>37</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>37</v>
@@ -8610,10 +8617,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8639,10 +8646,10 @@
         <v>197</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8672,28 +8679,28 @@
         <v>116</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8717,7 +8724,7 @@
         <v>37</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>37</v>
@@ -8731,10 +8738,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8757,16 +8764,16 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8816,7 +8823,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -8828,7 +8835,7 @@
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>435</v>
+        <v>37</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>37</v>
@@ -8840,7 +8847,7 @@
         <v>37</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>37</v>
@@ -8854,10 +8861,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8975,10 +8982,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9098,14 +9105,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9127,10 +9134,10 @@
         <v>70</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>73</v>
@@ -9185,7 +9192,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9223,10 +9230,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9237,7 +9244,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -9252,10 +9259,10 @@
         <v>197</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9285,10 +9292,10 @@
         <v>116</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
@@ -9306,7 +9313,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9315,25 +9322,25 @@
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>37</v>
@@ -9344,10 +9351,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9361,7 +9368,7 @@
         <v>39</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>37</v>
@@ -9370,13 +9377,13 @@
         <v>50</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9427,7 +9434,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9436,7 +9443,7 @@
         <v>39</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>61</v>
@@ -9451,24 +9458,24 @@
         <v>37</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9482,7 +9489,7 @@
         <v>39</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>37</v>
@@ -9491,13 +9498,13 @@
         <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9548,7 +9555,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -9563,16 +9570,16 @@
         <v>61</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>37</v>
@@ -9581,7 +9588,7 @@
         <v>37</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.condition</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.condition</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -830,7 +830,7 @@
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/ValueSet/ConditionVerificationVS</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/ConditionVerificationVS</t>
   </si>
   <si>
     <t>con-3
@@ -1842,7 +1842,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.14453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="96.06640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,10 @@
     <t>\-</t>
   </si>
   <si>
+    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -683,6 +687,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>CX.4 / EI-2-4</t>
@@ -1169,13 +1177,6 @@
     <t>Age is generally used when the patient reports an age at which the Condition began to occur.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1186,12 +1187,6 @@
   </si>
   <si>
     <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>Condition.onset[x]:onsetDateTime</t>
-  </si>
-  <si>
-    <t>onsetDateTime</t>
   </si>
   <si>
     <t>ProblemTO.onsetDate</t>
@@ -1219,12 +1214,6 @@
     <t>FiveWs.done[x]</t>
   </si>
   <si>
-    <t>Condition.abatement[x]:abatementDateTime</t>
-  </si>
-  <si>
-    <t>abatementDateTime</t>
-  </si>
-  <si>
     <t>ProblemTO.abatementDateTime</t>
   </si>
   <si>
@@ -1271,7 +1260,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(Practitioner) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1404,6 +1393,10 @@
     <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.</t>
   </si>
   <si>
+    <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
@@ -1447,7 +1440,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -1810,7 +1803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ63"/>
+  <dimension ref="A1:AQ61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1819,9 +1812,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1847,7 +1840,7 @@
     <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.7421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1961,19 +1954,19 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>37</v>
@@ -1982,15 +1975,15 @@
         <v>37</v>
       </c>
       <c r="AQ1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2001,7 +1994,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -2010,19 +2003,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2072,13 +2065,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -2110,10 +2103,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2124,7 +2117,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -2133,16 +2126,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2193,19 +2186,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2231,10 +2224,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2245,7 +2238,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -2257,13 +2250,13 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2314,13 +2307,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -2338,7 +2331,7 @@
         <v>37</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>37</v>
@@ -2352,14 +2345,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2378,16 +2371,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2425,19 +2418,19 @@
         <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -2449,7 +2442,7 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2461,7 +2454,7 @@
         <v>37</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>37</v>
@@ -2475,10 +2468,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2489,7 +2482,7 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2498,19 +2491,19 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2560,19 +2553,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2598,10 +2591,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2612,7 +2605,7 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>37</v>
@@ -2621,19 +2614,19 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2683,19 +2676,19 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>37</v>
@@ -2716,15 +2709,15 @@
         <v>37</v>
       </c>
       <c r="AQ7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2735,7 +2728,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>37</v>
@@ -2744,19 +2737,19 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2806,19 +2799,19 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2844,10 +2837,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2867,19 +2860,19 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2929,7 +2922,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2941,7 +2934,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2967,10 +2960,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2990,19 +2983,19 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3028,13 +3021,13 @@
         <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>37</v>
@@ -3052,7 +3045,7 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3064,7 +3057,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -3090,10 +3083,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3113,19 +3106,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3151,13 +3144,13 @@
         <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>37</v>
@@ -3175,7 +3168,7 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3187,7 +3180,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -3213,10 +3206,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3227,28 +3220,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3298,19 +3291,19 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -3336,10 +3329,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3350,7 +3343,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -3362,16 +3355,16 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3397,13 +3390,13 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>37</v>
@@ -3421,19 +3414,19 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -3459,21 +3452,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3485,16 +3478,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3544,19 +3537,19 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
@@ -3568,7 +3561,7 @@
         <v>37</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>37</v>
@@ -3582,14 +3575,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3608,16 +3601,16 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3667,7 +3660,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3691,7 +3684,7 @@
         <v>37</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>37</v>
@@ -3705,10 +3698,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3731,13 +3724,13 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3776,17 +3769,17 @@
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3798,7 +3791,7 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -3824,13 +3817,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>37</v>
@@ -3840,10 +3833,10 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>37</v>
@@ -3852,16 +3845,16 @@
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3911,7 +3904,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3920,10 +3913,10 @@
         <v>39</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
@@ -3949,14 +3942,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3969,25 +3962,25 @@
         <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>37</v>
@@ -4036,7 +4029,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -4048,7 +4041,7 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -4060,7 +4053,7 @@
         <v>37</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>37</v>
@@ -4074,10 +4067,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4085,7 +4078,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -4097,22 +4090,22 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -4149,17 +4142,17 @@
         <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -4171,10 +4164,10 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>37</v>
@@ -4183,34 +4176,34 @@
         <v>37</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -4222,22 +4215,22 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4286,7 +4279,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4298,10 +4291,10 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>37</v>
@@ -4310,10 +4303,10 @@
         <v>37</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>37</v>
@@ -4324,10 +4317,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4338,7 +4331,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -4350,13 +4343,13 @@
         <v>37</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4407,13 +4400,13 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
@@ -4431,7 +4424,7 @@
         <v>37</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>37</v>
@@ -4445,14 +4438,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4471,16 +4464,16 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4518,19 +4511,19 @@
         <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4542,7 +4535,7 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
@@ -4554,7 +4547,7 @@
         <v>37</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>37</v>
@@ -4568,10 +4561,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4579,34 +4572,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -4616,7 +4609,7 @@
         <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>37</v>
@@ -4631,13 +4624,13 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
@@ -4655,19 +4648,19 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
@@ -4676,10 +4669,10 @@
         <v>37</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>37</v>
@@ -4693,10 +4686,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4707,7 +4700,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -4716,22 +4709,22 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -4756,13 +4749,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4780,19 +4773,19 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
@@ -4801,10 +4794,10 @@
         <v>37</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>37</v>
@@ -4818,10 +4811,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4832,7 +4825,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4841,22 +4834,22 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -4869,7 +4862,7 @@
         <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>37</v>
@@ -4905,19 +4898,19 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
@@ -4926,10 +4919,10 @@
         <v>37</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>37</v>
@@ -4943,10 +4936,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4957,7 +4950,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -4966,19 +4959,19 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4992,7 +4985,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -5028,19 +5021,19 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
@@ -5049,10 +5042,10 @@
         <v>37</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>37</v>
@@ -5066,10 +5059,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5080,7 +5073,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -5089,16 +5082,16 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5149,19 +5142,19 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
@@ -5170,10 +5163,10 @@
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>37</v>
@@ -5187,10 +5180,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5201,7 +5194,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -5210,19 +5203,19 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5272,19 +5265,19 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
@@ -5293,10 +5286,10 @@
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>37</v>
@@ -5310,10 +5303,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5324,28 +5317,28 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5356,7 +5349,7 @@
         <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>37</v>
@@ -5371,11 +5364,11 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
@@ -5393,48 +5386,48 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5445,28 +5438,28 @@
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5492,11 +5485,11 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5514,48 +5507,48 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AP30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5563,13 +5556,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>37</v>
@@ -5578,16 +5571,16 @@
         <v>37</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5598,44 +5591,44 @@
         <v>37</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="T31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="Z31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5647,52 +5640,52 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>37</v>
@@ -5701,16 +5694,16 @@
         <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5736,11 +5729,11 @@
         <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5758,7 +5751,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -5770,22 +5763,22 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>37</v>
@@ -5796,13 +5789,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>37</v>
@@ -5812,10 +5805,10 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>37</v>
@@ -5824,16 +5817,16 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5844,7 +5837,7 @@
         <v>37</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>37</v>
@@ -5859,31 +5852,31 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -5895,22 +5888,22 @@
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>37</v>
@@ -5921,10 +5914,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5947,16 +5940,16 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5982,61 +5975,61 @@
         <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>37</v>
@@ -6044,43 +6037,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>37</v>
@@ -6105,13 +6098,13 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>37</v>
@@ -6129,37 +6122,37 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>37</v>
@@ -6167,10 +6160,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6181,7 +6174,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -6193,13 +6186,13 @@
         <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6250,13 +6243,13 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>37</v>
@@ -6274,7 +6267,7 @@
         <v>37</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>37</v>
@@ -6288,14 +6281,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6314,16 +6307,16 @@
         <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6361,19 +6354,19 @@
         <v>37</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6385,7 +6378,7 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
@@ -6397,7 +6390,7 @@
         <v>37</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>37</v>
@@ -6411,10 +6404,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6422,34 +6415,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6498,7 +6491,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6510,7 +6503,7 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
@@ -6519,10 +6512,10 @@
         <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
@@ -6531,15 +6524,15 @@
         <v>37</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6547,34 +6540,34 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>37</v>
@@ -6623,19 +6616,19 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
@@ -6644,10 +6637,10 @@
         <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -6656,15 +6649,15 @@
         <v>37</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6684,19 +6677,19 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6722,13 +6715,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6746,7 +6739,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6758,25 +6751,25 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>37</v>
@@ -6784,43 +6777,43 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -6869,48 +6862,48 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6930,19 +6923,19 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6992,34 +6985,34 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>37</v>
@@ -7030,10 +7023,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7044,28 +7037,28 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7103,29 +7096,31 @@
         <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>364</v>
+        <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>365</v>
@@ -7146,19 +7141,17 @@
         <v>37</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>37</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C44" t="s" s="2">
         <v>370</v>
       </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>37</v>
       </c>
@@ -7167,28 +7160,28 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7238,48 +7231,48 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7290,29 +7283,27 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>37</v>
@@ -7349,29 +7340,31 @@
         <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>364</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7380,31 +7373,29 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>37</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>37</v>
       </c>
@@ -7413,29 +7404,27 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7484,19 +7473,19 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -7508,24 +7497,24 @@
         <v>37</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>381</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7536,25 +7525,25 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7605,19 +7594,19 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -7626,27 +7615,27 @@
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7666,16 +7655,16 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7726,19 +7715,19 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>403</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
@@ -7750,10 +7739,10 @@
         <v>37</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>394</v>
+        <v>37</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>37</v>
@@ -7764,10 +7753,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7778,25 +7767,25 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>396</v>
+        <v>64</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>397</v>
+        <v>65</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>398</v>
+        <v>66</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7847,19 +7836,19 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>67</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
@@ -7868,38 +7857,38 @@
         <v>37</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>399</v>
+        <v>37</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>402</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7911,15 +7900,17 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7968,7 +7959,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7980,7 +7971,7 @@
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
@@ -7992,7 +7983,7 @@
         <v>37</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>408</v>
+        <v>68</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -8006,42 +7997,46 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>64</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
       </c>
@@ -8089,19 +8084,19 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
@@ -8113,7 +8108,7 @@
         <v>37</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>37</v>
@@ -8127,21 +8122,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -8153,17 +8148,15 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>71</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8188,13 +8181,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -8212,31 +8205,31 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>67</v>
+        <v>308</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
@@ -8250,14 +8243,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>412</v>
+        <v>37</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8270,26 +8263,22 @@
         <v>37</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>37</v>
       </c>
@@ -8337,7 +8326,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8346,10 +8335,10 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>37</v>
+        <v>417</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
@@ -8361,7 +8350,7 @@
         <v>37</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>149</v>
+        <v>423</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8375,10 +8364,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8389,7 +8378,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8401,13 +8390,13 @@
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8434,13 +8423,13 @@
         <v>37</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>37</v>
@@ -8458,31 +8447,31 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>422</v>
+        <v>37</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>306</v>
+        <v>429</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>37</v>
@@ -8496,10 +8485,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8522,15 +8511,17 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>37</v>
@@ -8579,7 +8570,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8588,10 +8579,10 @@
         <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>421</v>
+        <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>434</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
@@ -8603,7 +8594,7 @@
         <v>37</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>37</v>
@@ -8617,10 +8608,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8631,7 +8622,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>37</v>
@@ -8643,13 +8634,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>65</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>66</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8676,13 +8667,13 @@
         <v>37</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>431</v>
+        <v>37</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>37</v>
@@ -8700,19 +8691,19 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>67</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
@@ -8724,7 +8715,7 @@
         <v>37</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>433</v>
+        <v>68</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>37</v>
@@ -8738,14 +8729,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8764,16 +8755,16 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>404</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>72</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
+        <v>73</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>437</v>
+        <v>74</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8823,7 +8814,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -8835,7 +8826,7 @@
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>37</v>
@@ -8847,7 +8838,7 @@
         <v>37</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>438</v>
+        <v>68</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>37</v>
@@ -8861,42 +8852,46 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>64</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>37</v>
       </c>
@@ -8944,19 +8939,19 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
@@ -8968,7 +8963,7 @@
         <v>37</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>37</v>
@@ -8982,21 +8977,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -9005,20 +9000,18 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>71</v>
+        <v>440</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -9043,13 +9036,13 @@
         <v>37</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>37</v>
+        <v>442</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>37</v>
+        <v>443</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>37</v>
@@ -9067,7 +9060,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
@@ -9076,25 +9069,25 @@
         <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>37</v>
+        <v>445</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>67</v>
+        <v>446</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>37</v>
+        <v>447</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>37</v>
@@ -9105,14 +9098,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>412</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9122,29 +9115,25 @@
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>70</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>37</v>
       </c>
@@ -9192,7 +9181,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9201,10 +9190,10 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>37</v>
+        <v>444</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
@@ -9216,24 +9205,24 @@
         <v>37</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>149</v>
+        <v>423</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>37</v>
+        <v>447</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>37</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9244,25 +9233,25 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>197</v>
+        <v>454</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9289,13 +9278,13 @@
         <v>37</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>445</v>
+        <v>37</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
@@ -9313,7 +9302,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9322,277 +9311,35 @@
         <v>39</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>447</v>
+        <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>37</v>
+        <v>458</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>450</v>
+        <v>37</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ62" t="s" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK63" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ63" t="s" s="2">
-        <v>463</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ63">
+  <autoFilter ref="A1:AQ61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9602,7 +9349,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -212,7 +212,223 @@
 </t>
   </si>
   <si>
-    <t>Condition.meta.id</t>
+    <t>Condition.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Condition.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Condition.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Condition.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Condition.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Condition.extension:assertedDate</t>
+  </si>
+  <si>
+    <t>assertedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {condition-assertedDate}
+</t>
+  </si>
+  <si>
+    <t>Date the condition was first asserted</t>
+  </si>
+  <si>
+    <t>The date on which the existence of the Condition was first asserted or acknowledged.</t>
+  </si>
+  <si>
+    <t>The assertedDate is in the context of the recording practitioner and might not be the same as the recordedDate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Condition.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Condition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this condition</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>{StationNbr} and {ProblemTO.id}</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>Condition.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>Condition.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -231,15 +447,10 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Condition.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
+    <t>Condition.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>Condition.identifier.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -248,351 +459,10 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Condition.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Condition.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>ProblemTO.timestamp</t>
-  </si>
-  <si>
-    <t>Condition.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Condition.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Condition.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Condition.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Condition.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Condition.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Condition.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Condition.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Condition.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Condition.extension:assertedDate</t>
-  </si>
-  <si>
-    <t>assertedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {condition-assertedDate}
-</t>
-  </si>
-  <si>
-    <t>Date the condition was first asserted</t>
-  </si>
-  <si>
-    <t>The date on which the existence of the Condition was first asserted or acknowledged.</t>
-  </si>
-  <si>
-    <t>The assertedDate is in the context of the recording practitioner and might not be the same as the recordedDate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Condition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Condition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Ids for this condition</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:use}
-</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {ProblemTO.id}</t>
-  </si>
-  <si>
-    <t>Condition.identifier:TOid</t>
-  </si>
-  <si>
-    <t>TOid</t>
-  </si>
-  <si>
-    <t>Condition.identifier:TOid.id</t>
-  </si>
-  <si>
-    <t>Condition.identifier.id</t>
-  </si>
-  <si>
-    <t>Condition.identifier:TOid.extension</t>
-  </si>
-  <si>
-    <t>Condition.identifier.extension</t>
   </si>
   <si>
     <t>Condition.identifier:TOid.use</t>
@@ -651,6 +521,9 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -1020,6 +893,10 @@
     <t>Condition.code.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1081,6 +958,9 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1803,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ61"/>
+  <dimension ref="A1:AQ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1834,7 +1714,7 @@
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="96.06640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
@@ -2244,10 +2124,10 @@
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>64</v>
@@ -2258,7 +2138,9 @@
       <c r="M4" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>37</v>
@@ -2307,7 +2189,7 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
@@ -2319,7 +2201,7 @@
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2331,7 +2213,7 @@
         <v>37</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AO4" t="s" s="2">
         <v>37</v>
@@ -2352,14 +2234,14 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2371,16 +2253,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2406,43 +2288,43 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AF5" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2454,7 +2336,7 @@
         <v>37</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>37</v>
@@ -2468,14 +2350,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2491,10 +2373,10 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>81</v>
@@ -2577,7 +2459,7 @@
         <v>37</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>37</v>
@@ -2591,21 +2473,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>37</v>
@@ -2614,19 +2496,19 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2676,19 +2558,19 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>37</v>
@@ -2700,7 +2582,7 @@
         <v>37</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>37</v>
@@ -2709,15 +2591,15 @@
         <v>37</v>
       </c>
       <c r="AQ7" t="s" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2728,7 +2610,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>37</v>
@@ -2737,20 +2619,18 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>37</v>
@@ -2787,31 +2667,29 @@
         <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2837,12 +2715,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="D9" t="s" s="2">
         <v>37</v>
       </c>
@@ -2851,28 +2731,28 @@
         <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2922,7 +2802,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2931,10 +2811,10 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2960,14 +2840,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2980,24 +2860,26 @@
         <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
       </c>
@@ -3021,13 +2903,13 @@
         <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>37</v>
@@ -3045,7 +2927,7 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3057,7 +2939,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -3069,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>37</v>
@@ -3083,10 +2965,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3094,7 +2976,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -3109,18 +2991,20 @@
         <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>37</v>
       </c>
@@ -3144,31 +3028,29 @@
         <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3183,7 +3065,7 @@
         <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>37</v>
@@ -3192,58 +3074,62 @@
         <v>37</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>37</v>
       </c>
@@ -3291,13 +3177,13 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
@@ -3306,7 +3192,7 @@
         <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>37</v>
@@ -3315,10 +3201,10 @@
         <v>37</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>37</v>
@@ -3329,10 +3215,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3355,17 +3241,15 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>37</v>
@@ -3390,13 +3274,13 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>37</v>
@@ -3426,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -3438,7 +3322,7 @@
         <v>37</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>37</v>
@@ -3452,21 +3336,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3478,7 +3362,7 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>138</v>
@@ -3487,7 +3371,7 @@
         <v>139</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3525,16 +3409,16 @@
         <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>141</v>
@@ -3543,13 +3427,13 @@
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
@@ -3561,7 +3445,7 @@
         <v>37</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>37</v>
@@ -3575,44 +3459,46 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>37</v>
       </c>
@@ -3621,7 +3507,7 @@
         <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>37</v>
@@ -3636,13 +3522,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -3660,19 +3546,19 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>37</v>
@@ -3681,10 +3567,10 @@
         <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>37</v>
@@ -3698,10 +3584,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3712,7 +3598,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -3721,19 +3607,23 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
       </c>
@@ -3757,41 +3647,43 @@
         <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -3800,10 +3692,10 @@
         <v>37</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>37</v>
@@ -3817,14 +3709,12 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>37</v>
       </c>
@@ -3836,27 +3726,29 @@
         <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
       </c>
@@ -3868,7 +3760,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -3904,19 +3796,19 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
@@ -3925,10 +3817,10 @@
         <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>37</v>
@@ -3942,46 +3834,44 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J18" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>37</v>
       </c>
@@ -3993,7 +3883,7 @@
         <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>37</v>
@@ -4029,19 +3919,19 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
@@ -4050,10 +3940,10 @@
         <v>37</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>37</v>
@@ -4067,10 +3957,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4078,10 +3968,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -4093,20 +3983,16 @@
         <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>37</v>
       </c>
@@ -4142,23 +4028,25 @@
         <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
@@ -4167,46 +4055,44 @@
         <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>177</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -4218,20 +4104,18 @@
         <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>37</v>
       </c>
@@ -4279,13 +4163,13 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
@@ -4294,19 +4178,19 @@
         <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>37</v>
@@ -4317,10 +4201,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4334,24 +4218,26 @@
         <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4361,7 +4247,7 @@
         <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>37</v>
@@ -4376,13 +4262,11 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4400,7 +4284,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4409,71 +4293,71 @@
         <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>37</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4499,72 +4383,70 @@
         <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>37</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4575,32 +4457,30 @@
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>37</v>
       </c>
@@ -4609,7 +4489,7 @@
         <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>37</v>
@@ -4624,37 +4504,35 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
@@ -4666,66 +4544,66 @@
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>37</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>37</v>
       </c>
@@ -4749,13 +4627,11 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4773,13 +4649,13 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
@@ -4791,16 +4667,16 @@
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>37</v>
@@ -4811,12 +4687,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4828,29 +4706,27 @@
         <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4859,10 +4735,10 @@
         <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>37</v>
@@ -4874,13 +4750,13 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -4898,34 +4774,34 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>37</v>
@@ -4936,10 +4812,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4950,7 +4826,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -4959,19 +4835,19 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4985,7 +4861,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -4997,13 +4873,13 @@
         <v>37</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>37</v>
@@ -5021,7 +4897,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -5039,19 +4915,19 @@
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>37</v>
@@ -5059,24 +4935,24 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>37</v>
@@ -5085,16 +4961,18 @@
         <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>37</v>
       </c>
@@ -5118,13 +4996,13 @@
         <v>37</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>37</v>
@@ -5142,7 +5020,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5157,22 +5035,22 @@
         <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>37</v>
@@ -5180,10 +5058,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5203,20 +5081,18 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>37</v>
@@ -5265,7 +5141,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -5277,7 +5153,7 @@
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
@@ -5286,10 +5162,10 @@
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>243</v>
+        <v>135</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>37</v>
@@ -5303,42 +5179,42 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5349,7 +5225,7 @@
         <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>37</v>
@@ -5364,70 +5240,72 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>256</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5435,7 +5313,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>50</v>
@@ -5444,24 +5322,26 @@
         <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
       </c>
@@ -5485,11 +5365,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5507,48 +5389,48 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5559,7 +5441,7 @@
         <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>51</v>
@@ -5568,21 +5450,23 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5591,7 +5475,7 @@
         <v>37</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>37</v>
@@ -5606,35 +5490,37 @@
         <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
@@ -5646,64 +5532,62 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5729,11 +5613,13 @@
         <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5751,7 +5637,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -5769,19 +5655,19 @@
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>278</v>
+        <v>37</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>37</v>
@@ -5789,20 +5675,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>50</v>
@@ -5814,21 +5698,21 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
       </c>
@@ -5837,7 +5721,7 @@
         <v>37</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>37</v>
@@ -5852,13 +5736,13 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
@@ -5876,13 +5760,13 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
@@ -5891,33 +5775,33 @@
         <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>37</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5937,19 +5821,19 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5975,13 +5859,13 @@
         <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>37</v>
@@ -5999,7 +5883,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
@@ -6014,22 +5898,22 @@
         <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>37</v>
@@ -6037,18 +5921,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>299</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>50</v>
@@ -6063,18 +5947,18 @@
         <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>37</v>
       </c>
@@ -6098,13 +5982,13 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>37</v>
@@ -6122,7 +6006,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
@@ -6137,33 +6021,33 @@
         <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>37</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6177,7 +6061,7 @@
         <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>37</v>
@@ -6186,15 +6070,17 @@
         <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -6243,7 +6129,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>67</v>
+        <v>331</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6252,10 +6138,10 @@
         <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>37</v>
+        <v>335</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
@@ -6267,57 +6153,55 @@
         <v>37</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>68</v>
+        <v>336</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>37</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>71</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>72</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>37</v>
@@ -6354,31 +6238,31 @@
         <v>37</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
@@ -6387,27 +6271,27 @@
         <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>37</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6415,13 +6299,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>37</v>
@@ -6430,20 +6314,16 @@
         <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>37</v>
       </c>
@@ -6491,13 +6371,13 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
@@ -6512,27 +6392,27 @@
         <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>321</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6540,7 +6420,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>50</v>
@@ -6555,20 +6435,16 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>37</v>
       </c>
@@ -6616,7 +6492,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6637,27 +6513,27 @@
         <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>37</v>
+        <v>358</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6677,20 +6553,18 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>198</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -6715,13 +6589,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>335</v>
+        <v>37</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -6739,7 +6613,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6751,25 +6625,25 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>339</v>
+        <v>37</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>37</v>
@@ -6777,44 +6651,42 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>132</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>133</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>37</v>
       </c>
@@ -6862,10 +6734,10 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>134</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>50</v>
@@ -6874,47 +6746,47 @@
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>346</v>
+        <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>348</v>
+        <v>135</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>350</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -6923,19 +6795,19 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>95</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
+        <v>139</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6985,34 +6857,34 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>141</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>357</v>
+        <v>37</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>359</v>
+        <v>37</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>37</v>
@@ -7023,44 +6895,46 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>37</v>
+        <v>369</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>361</v>
+        <v>95</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>37</v>
       </c>
@@ -7108,48 +6982,48 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>367</v>
+        <v>93</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>368</v>
+        <v>37</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>369</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7163,7 +7037,7 @@
         <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>37</v>
@@ -7172,17 +7046,15 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>156</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
@@ -7207,13 +7079,13 @@
         <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>37</v>
@@ -7231,7 +7103,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7240,7 +7112,7 @@
         <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>62</v>
@@ -7249,30 +7121,30 @@
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>37</v>
+        <v>379</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>377</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7283,25 +7155,25 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7352,16 +7224,16 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>62</v>
@@ -7373,19 +7245,19 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>384</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -7404,7 +7276,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -7413,16 +7285,16 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7449,13 +7321,13 @@
         <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>37</v>
+        <v>389</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>37</v>
@@ -7497,10 +7369,10 @@
         <v>37</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>390</v>
+        <v>37</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>37</v>
@@ -7525,27 +7397,29 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7600,13 +7474,13 @@
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>395</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -7615,27 +7489,27 @@
         <v>37</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>37</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>396</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>398</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7646,7 +7520,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -7658,13 +7532,13 @@
         <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>132</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>133</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7715,19 +7589,19 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>134</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
@@ -7739,7 +7613,7 @@
         <v>37</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>404</v>
+        <v>135</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>37</v>
@@ -7753,21 +7627,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>37</v>
@@ -7779,15 +7653,17 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>37</v>
@@ -7836,19 +7712,19 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
@@ -7860,7 +7736,7 @@
         <v>37</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>37</v>
@@ -7874,14 +7750,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7894,24 +7770,26 @@
         <v>37</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>72</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
       </c>
@@ -7959,7 +7837,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7971,7 +7849,7 @@
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
@@ -7983,7 +7861,7 @@
         <v>37</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>37</v>
@@ -7997,46 +7875,42 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>408</v>
+        <v>37</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>37</v>
       </c>
@@ -8060,13 +7934,13 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>37</v>
@@ -8084,7 +7958,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
@@ -8093,25 +7967,25 @@
         <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>37</v>
+        <v>406</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>150</v>
+        <v>407</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>37</v>
@@ -8122,10 +7996,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8136,25 +8010,25 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>198</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8181,13 +8055,13 @@
         <v>37</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>37</v>
@@ -8205,16 +8079,16 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>62</v>
@@ -8223,30 +8097,30 @@
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>37</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8260,7 +8134,7 @@
         <v>39</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>37</v>
@@ -8269,13 +8143,13 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8326,7 +8200,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8335,22 +8209,22 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>37</v>
@@ -8359,987 +8233,11 @@
         <v>37</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ55" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ56" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ57" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ58" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>460</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ61">
+  <autoFilter ref="A1:AQ53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9349,7 +8247,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1356,6 +1356,9 @@
   </si>
   <si>
     <t>ProblemTO.comments + ProblemTO.comment</t>
+  </si>
+  <si>
+    <t>ProblemTO.comments</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1686,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ53"/>
+  <dimension ref="A1:AR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1733,6 +1736,7 @@
     <col min="41" max="41" width="16.20703125" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="11.07421875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="63.0859375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="63.0859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1857,6 +1861,9 @@
       <c r="AQ1" t="s" s="2">
         <v>48</v>
       </c>
+      <c r="AR1" t="s" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -1980,6 +1987,9 @@
       <c r="AQ2" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR2" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
@@ -2101,6 +2111,9 @@
       <c r="AQ3" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR3" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
@@ -2224,6 +2237,9 @@
       <c r="AQ4" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR4" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
@@ -2347,6 +2363,9 @@
       <c r="AQ5" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR5" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
@@ -2470,6 +2489,9 @@
       <c r="AQ6" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR6" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
@@ -2593,6 +2615,9 @@
       <c r="AQ7" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR7" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
@@ -2712,6 +2737,9 @@
       <c r="AQ8" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR8" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
@@ -2837,6 +2865,9 @@
       <c r="AQ9" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR9" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
@@ -2962,6 +2993,9 @@
       <c r="AQ10" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR10" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
@@ -3085,6 +3119,9 @@
       <c r="AQ11" t="s" s="2">
         <v>126</v>
       </c>
+      <c r="AR11" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
@@ -3212,6 +3249,9 @@
       <c r="AQ12" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR12" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
@@ -3333,6 +3373,9 @@
       <c r="AQ13" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR13" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
@@ -3456,6 +3499,9 @@
       <c r="AQ14" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR14" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
@@ -3581,6 +3627,9 @@
       <c r="AQ15" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR15" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
@@ -3706,6 +3755,9 @@
       <c r="AQ16" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR16" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
@@ -3831,6 +3883,9 @@
       <c r="AQ17" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR17" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
@@ -3954,6 +4009,9 @@
       <c r="AQ18" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR18" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
@@ -4075,6 +4133,9 @@
       <c r="AQ19" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR19" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
@@ -4198,6 +4259,9 @@
       <c r="AQ20" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR20" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
@@ -4319,6 +4383,9 @@
       <c r="AQ21" t="s" s="2">
         <v>215</v>
       </c>
+      <c r="AR21" t="s" s="2">
+        <v>215</v>
+      </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
@@ -4440,6 +4507,9 @@
       <c r="AQ22" t="s" s="2">
         <v>226</v>
       </c>
+      <c r="AR22" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
@@ -4561,6 +4631,9 @@
       <c r="AQ23" t="s" s="2">
         <v>238</v>
       </c>
+      <c r="AR23" t="s" s="2">
+        <v>238</v>
+      </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
@@ -4684,6 +4757,9 @@
       <c r="AQ24" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR24" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
@@ -4809,6 +4885,9 @@
       <c r="AQ25" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR25" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
@@ -4932,6 +5011,9 @@
       <c r="AQ26" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR26" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
@@ -5055,6 +5137,9 @@
       <c r="AQ27" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR27" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
@@ -5176,6 +5261,9 @@
       <c r="AQ28" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR28" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
@@ -5299,6 +5387,9 @@
       <c r="AQ29" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR29" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
@@ -5424,6 +5515,9 @@
       <c r="AQ30" t="s" s="2">
         <v>281</v>
       </c>
+      <c r="AR30" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
@@ -5549,6 +5643,9 @@
       <c r="AQ31" t="s" s="2">
         <v>290</v>
       </c>
+      <c r="AR31" t="s" s="2">
+        <v>290</v>
+      </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
@@ -5672,6 +5769,9 @@
       <c r="AQ32" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR32" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
@@ -5795,6 +5895,9 @@
       <c r="AQ33" t="s" s="2">
         <v>311</v>
       </c>
+      <c r="AR33" t="s" s="2">
+        <v>311</v>
+      </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
@@ -5918,6 +6021,9 @@
       <c r="AQ34" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR34" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
@@ -6041,6 +6147,9 @@
       <c r="AQ35" t="s" s="2">
         <v>330</v>
       </c>
+      <c r="AR35" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
@@ -6164,6 +6273,9 @@
       <c r="AQ36" t="s" s="2">
         <v>338</v>
       </c>
+      <c r="AR36" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
@@ -6285,6 +6397,9 @@
       <c r="AQ37" t="s" s="2">
         <v>345</v>
       </c>
+      <c r="AR37" t="s" s="2">
+        <v>345</v>
+      </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
@@ -6406,6 +6521,9 @@
       <c r="AQ38" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR38" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
@@ -6527,6 +6645,9 @@
       <c r="AQ39" t="s" s="2">
         <v>359</v>
       </c>
+      <c r="AR39" t="s" s="2">
+        <v>359</v>
+      </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
@@ -6648,6 +6769,9 @@
       <c r="AQ40" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR40" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
@@ -6769,6 +6893,9 @@
       <c r="AQ41" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR41" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
@@ -6892,6 +7019,9 @@
       <c r="AQ42" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR42" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
@@ -7017,6 +7147,9 @@
       <c r="AQ43" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR43" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
@@ -7138,6 +7271,9 @@
       <c r="AQ44" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR44" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
@@ -7259,6 +7395,9 @@
       <c r="AQ45" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR45" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
@@ -7380,6 +7519,9 @@
       <c r="AQ46" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR46" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
@@ -7503,6 +7645,9 @@
       <c r="AQ47" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR47" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
@@ -7624,6 +7769,9 @@
       <c r="AQ48" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR48" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
@@ -7747,6 +7895,9 @@
       <c r="AQ49" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR49" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
@@ -7872,6 +8023,9 @@
       <c r="AQ50" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR50" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
@@ -7993,6 +8147,9 @@
       <c r="AQ51" t="s" s="2">
         <v>37</v>
       </c>
+      <c r="AR51" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
@@ -8114,6 +8271,9 @@
       <c r="AQ52" t="s" s="2">
         <v>413</v>
       </c>
+      <c r="AR52" t="s" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
@@ -8235,9 +8395,12 @@
       <c r="AQ53" t="s" s="2">
         <v>421</v>
       </c>
+      <c r="AR53" t="s" s="2">
+        <v>422</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ53">
+  <autoFilter ref="A1:AR53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1121,29 +1121,32 @@
     <t>Condition.recorder</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Practitioner) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Who recorded the condition</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>GetPractitioner(ProblemTO.observer)</t>
+  </si>
+  <si>
+    <t>Condition.asserter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Who recorded the condition</t>
-  </si>
-  <si>
-    <t>Individual who recorded the record and takes responsibility for its content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Condition.asserter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner) &lt;&lt;contained&gt;&gt;
-</t>
-  </si>
-  <si>
     <t>Person who asserts this condition</t>
   </si>
   <si>
@@ -1157,9 +1160,6 @@
   </si>
   <si>
     <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>GetPractitioner(ProblemTO.observer)</t>
   </si>
   <si>
     <t>Condition.stage</t>
@@ -6417,10 +6417,10 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>37</v>
@@ -6519,18 +6519,18 @@
         <v>37</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>37</v>
+        <v>352</v>
       </c>
       <c r="AR38" t="s" s="2">
-        <v>37</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6541,10 +6541,10 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>37</v>
@@ -6553,13 +6553,13 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6610,7 +6610,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6631,22 +6631,22 @@
         <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>359</v>
+        <v>37</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>359</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" hidden="true">

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6</t>
+    <t>0.2.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:16:33-05:00</t>
+    <t>2023-11-15T14:14:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +127,138 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Concept Domain Binding</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Attribute Binding</t>
+  </si>
+  <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: eVault-PHR to MHV-PHR</t>
   </si>
   <si>
     <t/>
@@ -1686,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR53"/>
+  <dimension ref="A1:AR54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1699,10 +1831,11 @@
     <col min="2" max="2" width="35.19140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="68.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1710,6697 +1843,6831 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="96.06640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="13.390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="18.9375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="65.78515625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.20703125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="63.0859375" customWidth="true" bestFit="true"/>
     <col min="44" max="44" width="63.0859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="N1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AO1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AR1" t="s" s="2">
-        <v>48</v>
+      <c r="M1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="AQ1" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="AR1" t="s" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR5" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="AR12" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR13" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR14" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR15" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR16" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR17" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR18" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR20" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AR21" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>37</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD23" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="AR23" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR26" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR27" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>37</v>
+        <v>309</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>280</v>
+        <v>179</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>37</v>
+        <v>334</v>
       </c>
       <c r="AR32" t="s" s="2">
-        <v>37</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>37</v>
+        <v>341</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>307</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>37</v>
+        <v>344</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="AR33" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="AR34" t="s" s="2">
-        <v>37</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AR35" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>37</v>
+        <v>371</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>37</v>
+        <v>379</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="AR37" t="s" s="2">
-        <v>345</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>37</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="AR38" t="s" s="2">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>37</v>
+        <v>396</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>37</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>364</v>
+        <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR40" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>132</v>
+        <v>406</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>133</v>
+        <v>407</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>134</v>
+        <v>404</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR41" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR42" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>369</v>
+        <v>154</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>182</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
+        <v>183</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR43" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>37</v>
+        <v>413</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR44" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>381</v>
+        <v>200</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>419</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>420</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>37</v>
+        <v>423</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR45" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>156</v>
+        <v>425</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>37</v>
+        <v>422</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>361</v>
+        <v>200</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>37</v>
+        <v>432</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>37</v>
+        <v>433</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>395</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>134</v>
+        <v>435</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>37</v>
+        <v>439</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>135</v>
+        <v>440</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR48" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR49" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>369</v>
+        <v>154</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>370</v>
+        <v>182</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>371</v>
+        <v>183</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>37</v>
+        <v>413</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>407</v>
+        <v>137</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>37</v>
+        <v>447</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>37</v>
+        <v>450</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AR52" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>37</v>
+        <v>452</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AR54" t="s" s="2">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR53">
+  <autoFilter ref="A1:AR54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8410,7 +8677,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -827,7 +827,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>ProblemTO.status==ACTIVE &amp; !ProblemTO.removed ? `#active` : todo</t>
+    <t>ProblemTO.status==ACTIVE &amp; !ProblemTO.removed ? `#active` : `#inactive`</t>
   </si>
   <si>
     <t>Condition.verificationStatus</t>
@@ -1868,8 +1868,8 @@
     <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="63.0859375" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="63.0859375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="68.22265625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="68.22265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -827,7 +827,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>ProblemTO.status==ACTIVE &amp; !ProblemTO.removed ? `#active` : `#inactive`</t>
+    <t>ProblemTO.status==ACTIVE &amp; !ProblemTO.removed ? `#active` : `#inactive` if not `entered-in-error`</t>
   </si>
   <si>
     <t>Condition.verificationStatus</t>
@@ -1868,8 +1868,8 @@
     <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="68.22265625" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="68.22265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="89.88671875" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="89.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AR$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="516">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -796,15 +796,7 @@
     <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/condition-clinical"/&gt;
-    &lt;code value="active"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/ValueSet/ConditionClinicalStatusVS</t>
   </si>
   <si>
     <t>con-3
@@ -827,7 +819,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>ProblemTO.status==ACTIVE &amp; !ProblemTO.removed ? `#active` : `#inactive` if not `entered-in-error`</t>
+    <t>ProblemTO.status (Active, Inactive)</t>
   </si>
   <si>
     <t>Condition.verificationStatus</t>
@@ -863,7 +855,7 @@
     <t>408729009</t>
   </si>
   <si>
-    <t>ProblemTO.verified ? `#confirmed` : `#unconfirmed`</t>
+    <t>ProblemTO.verified (confirmed, unconfirmed, entered-in-error)</t>
   </si>
   <si>
     <t>Condition.category</t>
@@ -1050,7 +1042,7 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>ICD-9 # ProblemTO.icd</t>
+    <t>ProblemTO.icd</t>
   </si>
   <si>
     <t>Condition.code.text</t>
@@ -1247,6 +1239,9 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
+    <t>ProblemTO.timestamp</t>
+  </si>
+  <si>
     <t>ProblemTO.modifiedDate</t>
   </si>
   <si>
@@ -1272,6 +1267,167 @@
     <t>GetPractitioner(ProblemTO.observer)</t>
   </si>
   <si>
+    <t>Condition.recorder.id</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
+</t>
+  </si>
+  <si>
+    <t>Alternative reference (target type is wrong)</t>
+  </si>
+  <si>
+    <t>Used when the target of the reference has a type that is not allowed by the definition of the element. In general, this should only arise when wrangling between versions using cross-version extensions.</t>
+  </si>
+  <si>
+    <t>Given that a reference SHALL have a display or reference, using this extension implies that there's a display present.</t>
+  </si>
+  <si>
+    <t>~ProblemTO.facility</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension:location.id</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension.id</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension:location.extension</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension.extension</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension:location.url</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-reference</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension:location.value[x]</t>
+  </si>
+  <si>
+    <t>Condition.recorder.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Condition.recorder.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Condition.recorder.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Condition.recorder.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Condition.recorder.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Condition.asserter</t>
   </si>
   <si>
@@ -1452,7 +1608,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1460,9 +1616,6 @@
   </si>
   <si>
     <t>Links to other relevant information, including pathology reports.</t>
-  </si>
-  <si>
-    <t>~ProblemTO.serviceConnected</t>
   </si>
   <si>
     <t>Condition.note</t>
@@ -1485,9 +1638,6 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
-  </si>
-  <si>
-    <t>ProblemTO.comments + ProblemTO.comment</t>
   </si>
   <si>
     <t>ProblemTO.comments</t>
@@ -1818,7 +1968,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR54"/>
+  <dimension ref="A1:AR65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1827,8 +1977,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.19140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.58203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
@@ -1852,7 +2002,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="96.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="97.62109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1868,8 +2018,8 @@
     <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="89.88671875" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="89.88671875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="57.77734375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="34.6953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4578,7 +4728,7 @@
         <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>81</v>
@@ -4597,7 +4747,7 @@
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4624,42 +4774,42 @@
         <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ22" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AP22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AR22" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4685,13 +4835,13 @@
         <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4721,7 +4871,7 @@
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4739,7 +4889,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
@@ -4748,31 +4898,31 @@
         <v>94</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AO23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AP23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AR23" t="s" s="2">
         <v>81</v>
@@ -4780,10 +4930,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4809,13 +4959,13 @@
         <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4826,7 +4976,7 @@
         <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>81</v>
@@ -4844,16 +4994,16 @@
         <v>205</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB24" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
@@ -4863,7 +5013,7 @@
         <v>143</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>82</v>
@@ -4881,36 +5031,36 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ24" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AP24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AR24" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>81</v>
@@ -4935,13 +5085,13 @@
         <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4971,7 +5121,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4989,7 +5139,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>82</v>
@@ -5007,16 +5157,16 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>81</v>
@@ -5030,13 +5180,13 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>81</v>
@@ -5061,13 +5211,13 @@
         <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5078,7 +5228,7 @@
         <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>81</v>
@@ -5096,10 +5246,10 @@
         <v>205</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5117,7 +5267,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>82</v>
@@ -5135,16 +5285,16 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>81</v>
@@ -5158,10 +5308,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5187,13 +5337,13 @@
         <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5222,10 +5372,10 @@
         <v>118</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5243,7 +5393,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>82</v>
@@ -5261,19 +5411,19 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AO27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>81</v>
@@ -5284,14 +5434,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5313,14 +5463,14 @@
         <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5348,11 +5498,11 @@
         <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5369,7 +5519,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
@@ -5384,22 +5534,22 @@
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>81</v>
@@ -5410,10 +5560,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5534,10 +5684,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5660,10 +5810,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5686,19 +5836,19 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5747,7 +5897,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>82</v>
@@ -5768,19 +5918,19 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AR31" t="s" s="2">
         <v>81</v>
@@ -5788,10 +5938,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5817,16 +5967,16 @@
         <v>175</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5875,7 +6025,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
@@ -5896,30 +6046,30 @@
         <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ32" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AO32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ32" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AR32" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5945,13 +6095,13 @@
         <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5977,14 +6127,14 @@
         <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
       </c>
@@ -6001,7 +6151,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>82</v>
@@ -6019,19 +6169,19 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>81</v>
@@ -6042,14 +6192,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6068,17 +6218,17 @@
         <v>95</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6127,7 +6277,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>94</v>
@@ -6142,36 +6292,36 @@
         <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AP34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AR34" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6194,16 +6344,16 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6253,7 +6403,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>82</v>
@@ -6268,19 +6418,19 @@
         <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>81</v>
@@ -6294,10 +6444,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6320,16 +6470,16 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6379,7 +6529,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
@@ -6394,25 +6544,25 @@
         <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AR36" t="s" s="2">
         <v>81</v>
@@ -6420,10 +6570,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6446,16 +6596,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6505,7 +6655,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
@@ -6514,7 +6664,7 @@
         <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>106</v>
@@ -6529,16 +6679,16 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AO37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AR37" t="s" s="2">
         <v>81</v>
@@ -6546,10 +6696,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6572,13 +6722,13 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6629,7 +6779,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
@@ -6650,19 +6800,19 @@
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AO38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ38" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AR38" t="s" s="2">
         <v>389</v>
@@ -6808,7 +6958,7 @@
         <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>81</v>
@@ -6817,16 +6967,16 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>398</v>
+        <v>175</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>399</v>
+        <v>176</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>400</v>
+        <v>177</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6877,7 +7027,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>397</v>
+        <v>178</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>82</v>
@@ -6889,7 +7039,7 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
@@ -6898,13 +7048,13 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>402</v>
+        <v>179</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>403</v>
+        <v>81</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>81</v>
@@ -6918,21 +7068,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6944,15 +7094,17 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>405</v>
+        <v>139</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>182</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6989,19 +7141,19 @@
         <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>404</v>
+        <v>185</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>82</v>
@@ -7013,7 +7165,7 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>408</v>
+        <v>145</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -7025,7 +7177,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>409</v>
+        <v>179</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7042,12 +7194,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7068,15 +7222,17 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>175</v>
+        <v>401</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>176</v>
+        <v>402</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7125,19 +7281,19 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -7149,7 +7305,7 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7158,7 +7314,7 @@
         <v>81</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>81</v>
@@ -7166,21 +7322,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -7192,17 +7348,15 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7251,19 +7405,19 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -7292,46 +7446,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>414</v>
+        <v>140</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7367,19 +7517,19 @@
         <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>416</v>
+        <v>185</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>82</v>
@@ -7403,7 +7553,7 @@
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7420,10 +7570,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7431,7 +7581,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>94</v>
@@ -7446,22 +7596,24 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>81</v>
@@ -7479,13 +7631,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7503,31 +7655,31 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>311</v>
+        <v>137</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7544,10 +7696,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7555,10 +7707,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7570,13 +7722,13 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7627,16 +7779,16 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>106</v>
@@ -7651,7 +7803,7 @@
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>428</v>
+        <v>137</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7668,10 +7820,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7691,18 +7843,20 @@
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7727,13 +7881,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7751,7 +7905,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>82</v>
@@ -7760,7 +7914,7 @@
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7775,7 +7929,7 @@
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>434</v>
+        <v>137</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>81</v>
@@ -7792,10 +7946,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7806,7 +7960,7 @@
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7815,19 +7969,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7853,13 +8007,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7877,19 +8031,19 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>439</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7901,7 +8055,7 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>440</v>
+        <v>137</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7918,10 +8072,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7941,18 +8095,20 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>176</v>
+        <v>438</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -8001,7 +8157,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>178</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8013,7 +8169,7 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>81</v>
@@ -8025,7 +8181,7 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>179</v>
+        <v>442</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -8042,21 +8198,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -8065,19 +8221,19 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>182</v>
+        <v>444</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>183</v>
+        <v>445</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>157</v>
+        <v>446</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8127,19 +8283,19 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>185</v>
+        <v>447</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>81</v>
@@ -8151,7 +8307,7 @@
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -8168,46 +8324,42 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>139</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8255,19 +8407,19 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -8276,13 +8428,13 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>137</v>
+        <v>453</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>81</v>
@@ -8296,10 +8448,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8319,16 +8471,16 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>200</v>
+        <v>456</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8355,13 +8507,13 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>447</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
@@ -8379,7 +8531,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -8388,25 +8540,25 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>106</v>
+        <v>459</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>81</v>
@@ -8420,10 +8572,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8434,25 +8586,25 @@
         <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>454</v>
+        <v>175</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>455</v>
+        <v>176</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>456</v>
+        <v>177</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8503,19 +8655,19 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>453</v>
+        <v>178</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>81</v>
@@ -8527,16 +8679,16 @@
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>428</v>
+        <v>179</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>457</v>
+        <v>81</v>
       </c>
       <c r="AR53" t="s" s="2">
         <v>81</v>
@@ -8544,14 +8696,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8561,7 +8713,7 @@
         <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>81</v>
@@ -8570,15 +8722,17 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>459</v>
+        <v>139</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>460</v>
+        <v>182</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8627,7 +8781,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>458</v>
+        <v>185</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -8639,35 +8793,1411 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR60" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AO54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AR54" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>466</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR62" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AR65" t="s" s="2">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR54">
+  <autoFilter ref="A1:AR65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8677,7 +10207,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,6 +237,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: eVault-PHR to MHV-PHR</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -253,12 +259,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
-  </si>
-  <si>
-    <t>Mapping: eVault-PHR to MHV-PHR</t>
   </si>
   <si>
     <t/>
@@ -284,6 +284,9 @@
 con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>ProblemTO</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -294,9 +297,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN, code=ASSERTION, value&lt;Diagnosis]</t>
-  </si>
-  <si>
-    <t>ProblemTO</t>
   </si>
   <si>
     <t>Condition.id</t>
@@ -539,6 +539,9 @@
 </t>
   </si>
   <si>
+    <t>{StationNbr} and {ProblemTO.id}</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -546,9 +549,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {ProblemTO.id}</t>
   </si>
   <si>
     <t>Condition.identifier:TOid</t>
@@ -803,6 +803,9 @@
 con-4con-5</t>
   </si>
   <si>
+    <t>ProblemTO.status (Active, Inactive)</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -819,9 +822,6 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>ProblemTO.status (Active, Inactive)</t>
-  </si>
-  <si>
     <t>Condition.verificationStatus</t>
   </si>
   <si>
@@ -842,6 +842,9 @@
 con-5</t>
   </si>
   <si>
+    <t>ProblemTO.verified (confirmed, unconfirmed, entered-in-error)</t>
+  </si>
+  <si>
     <t>&lt; 410514004 |Finding context value|</t>
   </si>
   <si>
@@ -853,9 +856,6 @@
   </si>
   <si>
     <t>408729009</t>
-  </si>
-  <si>
-    <t>ProblemTO.verified (confirmed, unconfirmed, entered-in-error)</t>
   </si>
   <si>
     <t>Condition.category</t>
@@ -885,6 +885,9 @@
 </t>
   </si>
   <si>
+    <t>`problem-list-item`</t>
+  </si>
+  <si>
     <t>&lt; 404684003 |Clinical finding|</t>
   </si>
   <si>
@@ -895,9 +898,6 @@
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>`problem-list-item`</t>
   </si>
   <si>
     <t>Condition.category:us-core</t>
@@ -1036,15 +1036,15 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
+    <t>ProblemTO.icd</t>
+  </si>
+  <si>
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>ProblemTO.icd</t>
-  </si>
-  <si>
     <t>Condition.code.text</t>
   </si>
   <si>
@@ -1063,13 +1063,13 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
+    <t>ProblemTO.type.name</t>
+  </si>
+  <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ProblemTO.type.name</t>
   </si>
   <si>
     <t>Condition.bodySite</t>
@@ -1122,6 +1122,9 @@
     <t>Group is typically used for veterinary or public health use cases.</t>
   </si>
   <si>
+    <t>patient</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1132,9 +1135,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>patient</t>
   </si>
   <si>
     <t>Condition.encounter</t>
@@ -1181,6 +1181,9 @@
     <t>Age is generally used when the patient reports an age at which the Condition began to occur.</t>
   </si>
   <si>
+    <t>ProblemTO.onsetDate</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1191,9 +1194,6 @@
   </si>
   <si>
     <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>ProblemTO.onsetDate</t>
   </si>
   <si>
     <t>Condition.abatement[x]</t>
@@ -1212,15 +1212,15 @@
 </t>
   </si>
   <si>
+    <t>ProblemTO.abatementDateTime</t>
+  </si>
+  <si>
     <t>.effectiveTime.high or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at remission"].value or .inboundRelationship[typeCode=SUBJ]source[classCode=CONC, moodCode=EVN].status=completed</t>
   </si>
   <si>
     <t>FiveWs.done[x]</t>
   </si>
   <si>
-    <t>ProblemTO.abatementDateTime</t>
-  </si>
-  <si>
     <t>Condition.recordedDate</t>
   </si>
   <si>
@@ -1230,6 +1230,12 @@
     <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.</t>
   </si>
   <si>
+    <t>ProblemTO.timestamp</t>
+  </si>
+  <si>
+    <t>ProblemTO.modifiedDate</t>
+  </si>
+  <si>
     <t>REL-11</t>
   </si>
   <si>
@@ -1237,12 +1243,6 @@
   </si>
   <si>
     <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>ProblemTO.timestamp</t>
-  </si>
-  <si>
-    <t>ProblemTO.modifiedDate</t>
   </si>
   <si>
     <t>Condition.recorder</t>
@@ -1258,13 +1258,13 @@
     <t>Individual who recorded the record and takes responsibility for its content.</t>
   </si>
   <si>
+    <t>GetPractitioner(ProblemTO.observer)</t>
+  </si>
+  <si>
     <t>.participation[typeCode=AUT].role</t>
   </si>
   <si>
     <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>GetPractitioner(ProblemTO.observer)</t>
   </si>
   <si>
     <t>Condition.recorder.id</t>
@@ -1631,6 +1631,9 @@
     <t>Additional information about the Condition. This is a general notes/comments entry  for description of the Condition, its diagnosis and prognosis.</t>
   </si>
   <si>
+    <t>ProblemTO.comments</t>
+  </si>
+  <si>
     <t>Event.note</t>
   </si>
   <si>
@@ -1638,9 +1641,6 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
-  </si>
-  <si>
-    <t>ProblemTO.comments</t>
   </si>
 </sst>
 </file>
@@ -2012,14 +2012,14 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="65.78515625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="213.04296875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="57.77734375" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="34.6953125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="57.77734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.6953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="65.78515625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="213.04296875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2261,25 +2261,25 @@
         <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AO2" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP2" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2895,13 +2895,13 @@
         <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP7" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ7" t="s" s="2">
         <v>81</v>
@@ -3021,13 +3021,13 @@
         <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP8" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ8" t="s" s="2">
         <v>81</v>
@@ -3399,13 +3399,13 @@
         <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP11" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>81</v>
@@ -3522,16 +3522,16 @@
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP12" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>170</v>
@@ -3646,25 +3646,25 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AP13" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AQ13" t="s" s="2">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AR13" t="s" s="2">
         <v>81</v>
@@ -3779,13 +3779,13 @@
         <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>81</v>
@@ -3905,13 +3905,13 @@
         <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ15" t="s" s="2">
         <v>81</v>
@@ -4030,16 +4030,16 @@
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>81</v>
@@ -4158,16 +4158,16 @@
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>81</v>
@@ -4286,16 +4286,16 @@
         <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>81</v>
@@ -4412,16 +4412,16 @@
         <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>81</v>
@@ -4536,16 +4536,16 @@
         <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>81</v>
@@ -4662,16 +4662,16 @@
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>81</v>
@@ -4783,25 +4783,25 @@
         <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>258</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>258</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
@@ -4904,28 +4904,28 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>268</v>
       </c>
       <c r="AQ23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AR23" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AR23" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -5028,28 +5028,28 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>277</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>281</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -5157,22 +5157,22 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AP25" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AQ25" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AR25" t="s" s="2">
         <v>81</v>
@@ -5285,22 +5285,22 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AP26" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AQ26" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AR26" t="s" s="2">
         <v>81</v>
@@ -5411,25 +5411,25 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AO27" t="s" s="2">
+      <c r="AQ27" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AP27" t="s" s="2">
+      <c r="AR27" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR27" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -5534,28 +5534,28 @@
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AQ28" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AP28" t="s" s="2">
+      <c r="AR28" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -5667,13 +5667,13 @@
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>81</v>
@@ -5793,13 +5793,13 @@
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>81</v>
@@ -5912,25 +5912,25 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AO31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP31" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="AR31" t="s" s="2">
         <v>81</v>
@@ -6040,28 +6040,28 @@
         <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AO32" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP32" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AR32" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -6169,25 +6169,25 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AO33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP33" t="s" s="2">
+      <c r="AQ33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AR33" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AQ33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AR33" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -6295,25 +6295,25 @@
         <v>350</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AN34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>354</v>
       </c>
       <c r="AR34" t="s" s="2">
-        <v>354</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -6418,25 +6418,25 @@
         <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AO35" t="s" s="2">
+      <c r="AQ35" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR35" t="s" s="2">
         <v>81</v>
@@ -6553,13 +6553,13 @@
         <v>370</v>
       </c>
       <c r="AN36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>373</v>
@@ -6670,7 +6670,7 @@
         <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
@@ -6679,13 +6679,13 @@
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>381</v>
@@ -6794,28 +6794,28 @@
         <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>387</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AR38" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -6918,28 +6918,28 @@
         <v>106</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>394</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>396</v>
       </c>
       <c r="AR39" t="s" s="2">
-        <v>396</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -7051,13 +7051,13 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>81</v>
@@ -7177,13 +7177,13 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>81</v>
@@ -7296,7 +7296,7 @@
         <v>145</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -7314,7 +7314,7 @@
         <v>81</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="AR42" t="s" s="2">
         <v>81</v>
@@ -7429,13 +7429,13 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ43" t="s" s="2">
         <v>81</v>
@@ -7679,13 +7679,13 @@
         <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>81</v>
@@ -7803,13 +7803,13 @@
         <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>81</v>
@@ -7929,13 +7929,13 @@
         <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>81</v>
@@ -8055,13 +8055,13 @@
         <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>81</v>
@@ -8181,13 +8181,13 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>81</v>
@@ -8307,13 +8307,13 @@
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>81</v>
@@ -8428,19 +8428,19 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AP51" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AO51" t="s" s="2">
+      <c r="AQ51" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR51" t="s" s="2">
         <v>81</v>
@@ -8555,13 +8555,13 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP52" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>81</v>
@@ -8679,13 +8679,13 @@
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>81</v>
@@ -8805,13 +8805,13 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>81</v>
@@ -8933,13 +8933,13 @@
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>81</v>
@@ -9051,19 +9051,19 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AM56" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AP56" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ56" t="s" s="2">
         <v>81</v>
@@ -9181,13 +9181,13 @@
         <v>81</v>
       </c>
       <c r="AN57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>81</v>
@@ -9305,13 +9305,13 @@
         <v>81</v>
       </c>
       <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>81</v>
@@ -9431,13 +9431,13 @@
         <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>81</v>
@@ -9555,13 +9555,13 @@
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>81</v>
@@ -9681,13 +9681,13 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>81</v>
@@ -9809,13 +9809,13 @@
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>81</v>
@@ -9924,25 +9924,25 @@
         <v>106</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AN63" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AO63" t="s" s="2">
+      <c r="AQ63" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ63" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR63" t="s" s="2">
         <v>81</v>
@@ -10057,16 +10057,16 @@
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AQ64" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AR64" t="s" s="2">
         <v>81</v>
@@ -10175,25 +10175,25 @@
         <v>512</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>81</v>
+        <v>512</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>513</v>
       </c>
       <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AO65" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AP65" t="s" s="2">
-        <v>81</v>
+        <v>515</v>
       </c>
       <c r="AQ65" t="s" s="2">
-        <v>515</v>
+        <v>81</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>515</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
